--- a/gap_design.xlsx
+++ b/gap_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="机构" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="199">
   <si>
     <t>表</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>varchar(6)</t>
+  </si>
+  <si>
+    <t>省级机构代码</t>
+  </si>
+  <si>
+    <t>uppercity</t>
+  </si>
+  <si>
+    <t>省级机构名称</t>
+  </si>
+  <si>
+    <t>upperbaseorgname</t>
   </si>
   <si>
     <t>统一社会信用代码</t>
@@ -609,10 +621,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -630,37 +642,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,6 +674,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,16 +740,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,6 +776,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -812,6 +824,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -824,157 +854,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,30 +1058,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1081,6 +1069,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,6 +1132,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1151,10 +1163,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1163,133 +1175,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1714,10 +1726,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1803,16 +1815,16 @@
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -1821,13 +1833,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -1835,7 +1847,7 @@
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1851,99 +1863,99 @@
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="23" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
@@ -1965,35 +1977,59 @@
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2020,13 +2056,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2034,36 +2070,36 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -2075,10 +2111,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -2087,51 +2123,51 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -2146,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -2160,10 +2196,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2190,21 +2226,21 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>11</v>
@@ -2212,10 +2248,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>11</v>
@@ -2223,35 +2259,35 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2280,14 +2316,14 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -2295,36 +2331,36 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="12"/>
       <c r="B4" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>10</v>
@@ -2336,10 +2372,10 @@
     <row r="5" spans="1:4">
       <c r="A5" s="12"/>
       <c r="B5" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>11</v>
@@ -2348,50 +2384,50 @@
     <row r="6" spans="1:4">
       <c r="A6" s="13"/>
       <c r="B6" s="10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="16"/>
       <c r="B10" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>11</v>
@@ -2400,52 +2436,52 @@
     <row r="11" spans="1:4">
       <c r="A11" s="16"/>
       <c r="B11" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="16"/>
       <c r="B12" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="16"/>
       <c r="B13" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="17"/>
       <c r="B14" s="11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -2455,349 +2491,349 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2"/>
       <c r="B21" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8"/>
       <c r="B36" s="11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8"/>
       <c r="B37" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8"/>
       <c r="B38" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8"/>
       <c r="B39" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8"/>
       <c r="B40" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8"/>
       <c r="B41" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8"/>
       <c r="B42" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E42" s="11"/>
     </row>
@@ -2807,36 +2843,36 @@
         <v>3</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="8"/>
       <c r="B44" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8"/>
       <c r="B45" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E45" s="11"/>
     </row>
@@ -2858,8 +2894,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2872,22 +2908,22 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2901,36 +2937,36 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -2939,25 +2975,25 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -2969,28 +3005,28 @@
     </row>
     <row r="10" ht="15" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
@@ -2998,46 +3034,46 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -3049,10 +3085,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -3060,21 +3096,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>
@@ -3083,22 +3119,22 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
@@ -3107,37 +3143,37 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D28" s="2"/>
     </row>

--- a/gap_design.xlsx
+++ b/gap_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="机构" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="202">
   <si>
     <t>表</t>
   </si>
@@ -478,7 +478,7 @@
     <t>主键，规则：H+6位机构+6位日期+4位流水 例：H1100002020040001</t>
   </si>
   <si>
-    <t>mainservice</t>
+    <t xml:space="preserve"> maincontract</t>
   </si>
   <si>
     <t>服务类型</t>
@@ -536,6 +536,15 @@
   </si>
   <si>
     <t>remark</t>
+  </si>
+  <si>
+    <t>保单号</t>
+  </si>
+  <si>
+    <t>policyno</t>
+  </si>
+  <si>
+    <t>varchar(22)</t>
   </si>
   <si>
     <t>省机构代码基础表</t>
@@ -621,12 +630,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,7 +651,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,13 +706,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,7 +766,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,22 +781,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,9 +794,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,120 +840,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -945,54 +1009,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,6 +1074,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1069,15 +1109,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,21 +1163,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1163,10 +1179,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,137 +1191,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1361,6 +1377,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1728,8 +1753,8 @@
   <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1871,7 +1896,7 @@
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1916,7 +1941,7 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1930,7 +1955,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="26" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1944,7 +1969,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2178,13 +2203,13 @@
       <c r="D10" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D13" t="s">
@@ -2192,10 +2217,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -2203,90 +2228,90 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="22" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2300,10 +2325,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2730,158 +2755,223 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B39" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D39" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="8"/>
-      <c r="B36" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8"/>
-      <c r="B37" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="8"/>
-      <c r="B38" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="8"/>
-      <c r="B39" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8"/>
       <c r="B40" s="11" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8"/>
       <c r="B41" s="11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8"/>
       <c r="B42" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="8"/>
       <c r="B43" s="11" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="8"/>
       <c r="B44" s="11" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>55</v>
+        <v>166</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8"/>
       <c r="B45" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="8"/>
+      <c r="B46" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="8"/>
+      <c r="B47" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="8"/>
+      <c r="B48" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8"/>
+      <c r="B49" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="8"/>
+      <c r="B50" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D50" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="11"/>
+      <c r="E50" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A17:A32"/>
-    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="A39:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2895,7 +2985,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2908,22 +2998,22 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2937,7 +3027,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -2949,7 +3039,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
@@ -2958,15 +3048,15 @@
         <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -3005,22 +3095,22 @@
     </row>
     <row r="10" ht="15" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>133</v>
@@ -3034,7 +3124,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>51</v>
@@ -3070,10 +3160,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -3085,10 +3175,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -3096,21 +3186,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>
@@ -3131,10 +3221,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
@@ -3143,10 +3233,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>23</v>

--- a/gap_design.xlsx
+++ b/gap_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="机构" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="193">
   <si>
     <t>表</t>
   </si>
@@ -220,7 +220,10 @@
     <t>userpwd</t>
   </si>
   <si>
-    <t>机构名称</t>
+    <t>经销商名称</t>
+  </si>
+  <si>
+    <t>经销商代码</t>
   </si>
   <si>
     <t>用户名称</t>
@@ -244,63 +247,45 @@
     <t xml:space="preserve">管理员-1 </t>
   </si>
   <si>
-    <t>businessmsg</t>
+    <t>职务</t>
+  </si>
+  <si>
+    <t>businesspost</t>
+  </si>
+  <si>
+    <t>列</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>甲方信息</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>int AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>partya</t>
+  </si>
+  <si>
+    <t>合同号</t>
+  </si>
+  <si>
+    <t>contractno</t>
+  </si>
+  <si>
+    <t>varchar(17)</t>
   </si>
   <si>
     <t>业务联系人</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>int AUTO_INCREMENT</t>
-  </si>
-  <si>
-    <t>经销商电话</t>
-  </si>
-  <si>
-    <t>业务联系人名称</t>
-  </si>
-  <si>
     <t>businessname</t>
   </si>
   <si>
-    <t>业务联系人职务</t>
-  </si>
-  <si>
-    <t>businesspost</t>
-  </si>
-  <si>
-    <t>业务联系人电话</t>
-  </si>
-  <si>
-    <t>businessmobile</t>
-  </si>
-  <si>
-    <t>列</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>甲方信息</t>
-  </si>
-  <si>
-    <t>partya</t>
-  </si>
-  <si>
-    <t>合同号</t>
-  </si>
-  <si>
-    <t>contractno</t>
-  </si>
-  <si>
-    <t>varchar(17)</t>
-  </si>
-  <si>
-    <t>经销商全称</t>
-  </si>
-  <si>
     <t>联系电话</t>
   </si>
   <si>
@@ -478,7 +463,7 @@
     <t>主键，规则：H+6位机构+6位日期+4位流水 例：H1100002020040001</t>
   </si>
   <si>
-    <t xml:space="preserve"> maincontract</t>
+    <t>maincontract</t>
   </si>
   <si>
     <t>服务类型</t>
@@ -611,18 +596,6 @@
   </si>
   <si>
     <t>maxno</t>
-  </si>
-  <si>
-    <t>单号使用记录表</t>
-  </si>
-  <si>
-    <t>userrecord</t>
-  </si>
-  <si>
-    <t>号码</t>
-  </si>
-  <si>
-    <t>usedno</t>
   </si>
 </sst>
 </file>
@@ -631,9 +604,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -654,6 +627,20 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -765,28 +752,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -800,6 +766,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -840,18 +813,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -864,31 +873,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,115 +933,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,10 +1152,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1191,137 +1164,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1361,6 +1334,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1379,22 +1355,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1754,7 +1721,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C7"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1896,7 +1863,7 @@
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1941,7 +1908,7 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1955,7 +1922,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="24" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1969,7 +1936,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2066,10 +2033,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2135,26 +2102,26 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
+      <c r="B5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -2163,157 +2130,68 @@
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>55</v>
-      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2325,10 +2203,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2344,11 +2222,11 @@
         <v>58</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -2356,36 +2234,36 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="12"/>
       <c r="B4" s="10" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>10</v>
@@ -2396,582 +2274,542 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="10" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="17"/>
+      <c r="B11" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="17"/>
+      <c r="B12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="17"/>
+      <c r="B13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="16"/>
-      <c r="B10" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="16"/>
-      <c r="B11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="16"/>
-      <c r="B12" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="17"/>
       <c r="B14" s="11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="2:4">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="C17" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>92</v>
+        <v>81</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="B18" s="10" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>85</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>23</v>
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="10" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="10" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="E25" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="10" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="10" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>138</v>
+        <v>113</v>
+      </c>
+      <c r="E31" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C36" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
+      <c r="D36" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="8"/>
+      <c r="B37" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="11"/>
+      <c r="D37" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>11</v>
+      <c r="A38" s="8"/>
+      <c r="B38" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="A39" s="8"/>
       <c r="B39" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8"/>
       <c r="B40" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>158</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8"/>
       <c r="B41" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8"/>
       <c r="B42" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="8"/>
       <c r="B43" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="8"/>
       <c r="B44" s="11" t="s">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8"/>
-      <c r="B45" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>118</v>
+      <c r="C45" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="8"/>
       <c r="B46" s="11" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>171</v>
+        <v>54</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8"/>
       <c r="B47" s="11" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>171</v>
+        <v>57</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="8"/>
-      <c r="B48" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="8"/>
-      <c r="B49" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="8"/>
-      <c r="B50" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A36:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2982,10 +2820,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2998,22 +2836,22 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -3027,36 +2865,36 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -3095,28 +2933,28 @@
     </row>
     <row r="10" ht="15" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
@@ -3124,13 +2962,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -3160,10 +2998,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -3175,10 +3013,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -3186,21 +3024,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>
@@ -3218,54 +3056,6 @@
         <v>55</v>
       </c>
       <c r="D22" s="2"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gap_design.xlsx
+++ b/gap_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9444" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="机构" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="196">
   <si>
     <t>表</t>
   </si>
@@ -530,6 +530,15 @@
   </si>
   <si>
     <t>varchar(22)</t>
+  </si>
+  <si>
+    <t>保存状态</t>
+  </si>
+  <si>
+    <t>savetype</t>
+  </si>
+  <si>
+    <t>0 暂存，1保存</t>
   </si>
   <si>
     <t>省机构代码基础表</t>
@@ -603,10 +612,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -631,13 +640,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -653,41 +655,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -700,7 +671,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,9 +685,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,7 +709,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,7 +745,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -760,15 +752,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,175 +822,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,26 +1071,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,35 +1112,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,6 +1127,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1152,10 +1161,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1164,133 +1173,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1439,7 +1448,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FAF9DE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1724,12 +1733,12 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="23.3796296296296" customWidth="1"/>
     <col min="2" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="8.87962962962963" customWidth="1"/>
+    <col min="5" max="5" width="13.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2039,11 +2048,11 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="12.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="20.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2203,17 +2212,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="13.625" customWidth="1"/>
+    <col min="3" max="4" width="13.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2780,36 +2789,51 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="8"/>
-      <c r="B46" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="11"/>
+      <c r="B46" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8"/>
       <c r="B47" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D47" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="8"/>
+      <c r="B48" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A36:A47"/>
+    <mergeCell ref="A36:A48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2822,36 +2846,36 @@
   <sheetPr/>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="10.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2865,7 +2889,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -2877,7 +2901,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
@@ -2886,15 +2910,15 @@
         <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -2933,22 +2957,22 @@
     </row>
     <row r="10" ht="15" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>128</v>
@@ -2962,7 +2986,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>51</v>
@@ -2998,10 +3022,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -3013,10 +3037,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -3024,21 +3048,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>

--- a/gap_design.xlsx
+++ b/gap_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9444" activeTab="2"/>
+    <workbookView windowWidth="21216" windowHeight="9144" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="机构" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="196">
   <si>
     <t>表</t>
   </si>
@@ -262,12 +262,6 @@
     <t>甲方信息</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>int AUTO_INCREMENT</t>
-  </si>
-  <si>
     <t>partya</t>
   </si>
   <si>
@@ -278,6 +272,12 @@
   </si>
   <si>
     <t>varchar(17)</t>
+  </si>
+  <si>
+    <t>业务联系人代码</t>
+  </si>
+  <si>
+    <t>businesscode</t>
   </si>
   <si>
     <t>业务联系人</t>
@@ -612,10 +612,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -639,16 +639,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,45 +700,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -717,6 +709,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,29 +745,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,6 +761,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -822,13 +822,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,157 +990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,36 +1056,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1106,6 +1076,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,6 +1128,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1161,10 +1161,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1173,133 +1173,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2212,10 +2212,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2245,28 +2245,22 @@
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2295,264 +2289,252 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="12"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="10" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="15" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="C11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="17"/>
-      <c r="B11" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="17"/>
       <c r="B12" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="17"/>
       <c r="B13" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="17"/>
       <c r="B14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="17"/>
+      <c r="B15" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="11" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="18"/>
+      <c r="B16" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="2:4">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="C19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>23</v>
+        <v>116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="10" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="10" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>113</v>
@@ -2561,148 +2543,147 @@
     <row r="28" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2"/>
       <c r="B32" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>133</v>
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B36" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="8" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B37" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D37" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8"/>
-      <c r="B37" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>153</v>
-      </c>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8"/>
       <c r="B38" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8"/>
       <c r="B39" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>133</v>
@@ -2712,23 +2693,23 @@
     <row r="40" spans="1:5">
       <c r="A40" s="8"/>
       <c r="B40" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8"/>
       <c r="B41" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>110</v>
@@ -2738,36 +2719,36 @@
     <row r="42" spans="1:5">
       <c r="A42" s="8"/>
       <c r="B42" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="8"/>
       <c r="B43" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="8"/>
       <c r="B44" s="11" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>166</v>
@@ -2776,64 +2757,77 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8"/>
-      <c r="B45" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>170</v>
+      <c r="B45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="8"/>
       <c r="B46" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>173</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8"/>
-      <c r="B47" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="11"/>
+      <c r="B47" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8"/>
       <c r="B48" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D48" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E48" s="11"/>
     </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8"/>
+      <c r="B49" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A36:A48"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="A37:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/gap_design.xlsx
+++ b/gap_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="9144" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9444" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="机构" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="200">
   <si>
     <t>表</t>
   </si>
@@ -539,6 +539,18 @@
   </si>
   <si>
     <t>0 暂存，1保存</t>
+  </si>
+  <si>
+    <t>操作人代码</t>
+  </si>
+  <si>
+    <t>operateCode</t>
+  </si>
+  <si>
+    <t>操作人名称</t>
+  </si>
+  <si>
+    <t>operateName</t>
   </si>
   <si>
     <t>省机构代码基础表</t>
@@ -612,9 +624,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -639,6 +651,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -649,30 +675,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,8 +702,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,20 +751,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,7 +773,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,22 +789,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -822,37 +834,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,13 +972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,42 +984,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -937,60 +1003,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,8 +1071,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,35 +1131,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,21 +1155,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1161,10 +1173,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1173,133 +1185,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2212,10 +2224,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2798,36 +2810,62 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8"/>
-      <c r="B48" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>55</v>
+      <c r="B48" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8"/>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="8"/>
+      <c r="B50" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="8"/>
+      <c r="B51" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D51" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="11"/>
+      <c r="E51" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="A19:A34"/>
-    <mergeCell ref="A37:A49"/>
+    <mergeCell ref="A37:A51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2854,22 +2892,22 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2883,7 +2921,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -2895,7 +2933,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
@@ -2904,15 +2942,15 @@
         <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -2951,22 +2989,22 @@
     </row>
     <row r="10" ht="15" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>128</v>
@@ -2980,7 +3018,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>51</v>
@@ -3016,10 +3054,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -3031,10 +3069,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -3042,21 +3080,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>

--- a/gap_design.xlsx
+++ b/gap_design.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="203">
   <si>
     <t>表</t>
   </si>
@@ -449,6 +449,15 @@
   </si>
   <si>
     <t>licensefee</t>
+  </si>
+  <si>
+    <t>排量</t>
+  </si>
+  <si>
+    <t>displacement</t>
+  </si>
+  <si>
+    <t>varchar(2),</t>
   </si>
   <si>
     <t>车船税</t>
@@ -624,9 +633,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -2224,10 +2233,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2639,55 +2648,52 @@
         <v>145</v>
       </c>
       <c r="D34" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" s="11" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D37" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="E37" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="11" t="s">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="8"/>
-      <c r="B38" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>153</v>
-      </c>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8"/>
@@ -2698,17 +2704,19 @@
         <v>155</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8"/>
       <c r="B40" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>133</v>
@@ -2718,23 +2726,23 @@
     <row r="41" spans="1:5">
       <c r="A41" s="8"/>
       <c r="B41" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8"/>
       <c r="B42" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>110</v>
@@ -2744,52 +2752,52 @@
     <row r="43" spans="1:5">
       <c r="A43" s="8"/>
       <c r="B43" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="8"/>
       <c r="B44" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8"/>
       <c r="B45" s="11" t="s">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="8"/>
-      <c r="B46" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C46" s="20" t="s">
+      <c r="B46" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>170</v>
       </c>
       <c r="E46" s="11"/>
     </row>
@@ -2802,11 +2810,9 @@
         <v>172</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" s="11" t="s">
         <v>173</v>
       </c>
+      <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8"/>
@@ -2817,55 +2823,70 @@
         <v>175</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8"/>
       <c r="B49" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8"/>
-      <c r="B50" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>55</v>
+      <c r="B50" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="8"/>
       <c r="B51" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D51" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="8"/>
+      <c r="B52" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A19:A34"/>
-    <mergeCell ref="A37:A51"/>
+    <mergeCell ref="A19:A35"/>
+    <mergeCell ref="A38:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2892,22 +2913,22 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2921,7 +2942,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -2933,7 +2954,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
@@ -2942,15 +2963,15 @@
         <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -2989,22 +3010,22 @@
     </row>
     <row r="10" ht="15" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>128</v>
@@ -3018,7 +3039,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>51</v>
@@ -3054,10 +3075,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -3069,10 +3090,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -3080,21 +3101,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>

--- a/gap_design.xlsx
+++ b/gap_design.xlsx
@@ -487,7 +487,7 @@
     <t>servicedate</t>
   </si>
   <si>
-    <t>1-1年，2-2年，3-3年</t>
+    <t>12-12月，24-24月，36-36月</t>
   </si>
   <si>
     <t>结算金额</t>
@@ -633,8 +633,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -661,13 +661,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -689,13 +682,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -706,14 +692,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,9 +766,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,31 +843,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,139 +1011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,21 +1095,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1164,6 +1149,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1182,10 +1182,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1194,133 +1194,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2235,8 +2235,8 @@
   <sheetPr/>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2704,7 +2704,7 @@
         <v>155</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>156</v>
